--- a/Manual_Testing_19_sep.xlsx
+++ b/Manual_Testing_19_sep.xlsx
@@ -8,16 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD1128C-5F06-45E4-8A95-7156C190A0CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BB7786-7C7B-424E-8923-5AA789EA4992}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="1" activeTab="4" xr2:uid="{AA297800-E1C1-4839-B283-3680DB09352F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="7" activeTab="8" xr2:uid="{AA297800-E1C1-4839-B283-3680DB09352F}"/>
   </bookViews>
   <sheets>
     <sheet name="HLR-Stationary" sheetId="1" r:id="rId1"/>
     <sheet name="HLR-Social Media" sheetId="2" r:id="rId2"/>
     <sheet name="HLR - Tops Careercenter" sheetId="3" r:id="rId3"/>
     <sheet name="HLR - It organization" sheetId="4" r:id="rId4"/>
-    <sheet name="Test Scenario" sheetId="5" r:id="rId5"/>
+    <sheet name="Test Scenario-Pen" sheetId="5" r:id="rId5"/>
+    <sheet name="Test Scenario - Remote" sheetId="6" r:id="rId6"/>
+    <sheet name="Test Scenario - AC" sheetId="7" r:id="rId7"/>
+    <sheet name="HLR- Careercenter" sheetId="8" r:id="rId8"/>
+    <sheet name="Test scenario - careercenter" sheetId="9" r:id="rId9"/>
+    <sheet name="Test cases - careercenter" sheetId="10" r:id="rId10"/>
+    <sheet name="Defect Report - careercenter" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="143">
   <si>
     <t>Function #</t>
   </si>
@@ -159,13 +165,319 @@
   </si>
   <si>
     <t>Scenarios of Chair</t>
+  </si>
+  <si>
+    <t>Test Scenario #</t>
+  </si>
+  <si>
+    <t>Test scenario Description</t>
+  </si>
+  <si>
+    <t>Test Scenario of PEN</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>Type-ink,gel,marker etc</t>
+  </si>
+  <si>
+    <t>ink-without ink</t>
+  </si>
+  <si>
+    <t>grip</t>
+  </si>
+  <si>
+    <t>spread when paper is wet</t>
+  </si>
+  <si>
+    <t>Verify the pen when write heavely</t>
+  </si>
+  <si>
+    <t>erasable</t>
+  </si>
+  <si>
+    <t>use and throw or refillable</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>cap</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>durablilty</t>
+  </si>
+  <si>
+    <t>brand name</t>
+  </si>
+  <si>
+    <t>packing</t>
+  </si>
+  <si>
+    <t>other usage like tide with hair</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">throw and check - breakable </t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>Test Scenario of Remote</t>
+  </si>
+  <si>
+    <t>Brand name</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>All the button</t>
+  </si>
+  <si>
+    <t>setttings options</t>
+  </si>
+  <si>
+    <t>connectivity with device</t>
+  </si>
+  <si>
+    <t>cell working</t>
+  </si>
+  <si>
+    <t>without cell</t>
+  </si>
+  <si>
+    <t>cell with low battery</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>connect with other device</t>
+  </si>
+  <si>
+    <t>comforable</t>
+  </si>
+  <si>
+    <t>screen</t>
+  </si>
+  <si>
+    <t>display with button operation</t>
+  </si>
+  <si>
+    <t>Display Light</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Test Scenario of AC</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>Compressor</t>
+  </si>
+  <si>
+    <t>Fan</t>
+  </si>
+  <si>
+    <t>cooling effect</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>pipe</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>sensor</t>
+  </si>
+  <si>
+    <t>type of AC</t>
+  </si>
+  <si>
+    <t>fitting</t>
+  </si>
+  <si>
+    <t>swing</t>
+  </si>
+  <si>
+    <t>power cosupmsion</t>
+  </si>
+  <si>
+    <t>invertor</t>
+  </si>
+  <si>
+    <t>check with remote</t>
+  </si>
+  <si>
+    <t>working with remote</t>
+  </si>
+  <si>
+    <t>repairable</t>
+  </si>
+  <si>
+    <t>gurantee</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Student who register/took admission can login</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After enrolling to the course counsellors create registration </t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>All the details of students can view</t>
+  </si>
+  <si>
+    <t>Assignment</t>
+  </si>
+  <si>
+    <t>Assessment</t>
+  </si>
+  <si>
+    <t>All the assigments details are shown.
+Also Student can submit assignment thru link
+Student can  view the assigments topics wise /Module wise</t>
+  </si>
+  <si>
+    <t>All the assements details are shown.
+Also Student can submit assessement thru link
+Student can  view the assessment Module wise</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student can review the course expereince </t>
+  </si>
+  <si>
+    <t>Reward</t>
+  </si>
+  <si>
+    <t>According to review student can got reward
+According to Points student can get Labtop bag, Bluetooth headset , ….</t>
+  </si>
+  <si>
+    <t>Events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complain / Suggestion </t>
+  </si>
+  <si>
+    <t>Test scenario</t>
+  </si>
+  <si>
+    <t>Test scenario #</t>
+  </si>
+  <si>
+    <t>TS101</t>
+  </si>
+  <si>
+    <t>To check Login with valid user name and password</t>
+  </si>
+  <si>
+    <t>TS102</t>
+  </si>
+  <si>
+    <t>To check Login with Invalid credential</t>
+  </si>
+  <si>
+    <t>TS103</t>
+  </si>
+  <si>
+    <t>To check Login with valid username and invalid password</t>
+  </si>
+  <si>
+    <t>TS104</t>
+  </si>
+  <si>
+    <t>To check Login with invalid username and valid password</t>
+  </si>
+  <si>
+    <t>TS105</t>
+  </si>
+  <si>
+    <t>To check Login with blank username/password</t>
+  </si>
+  <si>
+    <t>TS106</t>
+  </si>
+  <si>
+    <t>TS107</t>
+  </si>
+  <si>
+    <t>TS108</t>
+  </si>
+  <si>
+    <t>TS109</t>
+  </si>
+  <si>
+    <t>To check Login with special character username/password</t>
+  </si>
+  <si>
+    <t>To check username with alphabets and valid password</t>
+  </si>
+  <si>
+    <t>To check username and password with specific length</t>
+  </si>
+  <si>
+    <t>To check forget password link is working or not</t>
+  </si>
+  <si>
+    <t>TS110</t>
+  </si>
+  <si>
+    <t>TS111</t>
+  </si>
+  <si>
+    <t>TS112</t>
+  </si>
+  <si>
+    <t>TS113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To check Login Button - redirect to valid page - </t>
+  </si>
+  <si>
+    <t>To check UI - speling check , location ,alignment , tabs ,fonts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To check the error messages when mobile number and password are blanks &amp; when username and password are incorrect
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +494,14 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -223,19 +543,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,11 +891,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -680,6 +1007,30 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4E8803-702F-44BC-928D-9C55E60E1BE6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BEF6B0F-9B80-4F5A-8A37-77D7D6BA8D2A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -699,11 +1050,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -767,7 +1118,7 @@
       <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -812,19 +1163,19 @@
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="1"/>
@@ -868,35 +1219,837 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4978A31E-3720-430F-9356-8C68F505C95D}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA33F26-D4BD-491E-81B1-457F0372153F}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FAC4040-0007-4257-80CE-8D7B5FBC6D98}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{639D9534-43CF-4613-93DC-55DB247E496D}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DDC576E-AA6E-4F43-9CDE-87A3912FD3F6}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Manual_Testing_19_sep.xlsx
+++ b/Manual_Testing_19_sep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BB7786-7C7B-424E-8923-5AA789EA4992}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119E4EC9-5990-4761-ADD6-2660B72529E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="7" activeTab="8" xr2:uid="{AA297800-E1C1-4839-B283-3680DB09352F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="7" activeTab="9" xr2:uid="{AA297800-E1C1-4839-B283-3680DB09352F}"/>
   </bookViews>
   <sheets>
     <sheet name="HLR-Stationary" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="179">
   <si>
     <t>Function #</t>
   </si>
@@ -471,13 +471,129 @@
   <si>
     <t xml:space="preserve">To check the error messages when mobile number and password are blanks &amp; when username and password are incorrect
 </t>
+  </si>
+  <si>
+    <t>Test case #</t>
+  </si>
+  <si>
+    <t>Test case Description</t>
+  </si>
+  <si>
+    <t>Test steps</t>
+  </si>
+  <si>
+    <t>Test data</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual result</t>
+  </si>
+  <si>
+    <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>Negative/Positive Testing</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Screenshots</t>
+  </si>
+  <si>
+    <t>TC101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To check the Login with valid crendentials </t>
+  </si>
+  <si>
+    <t>1. Open Browser
+2. Open URL : "http://www.careercenter.com
+3. Enter data</t>
+  </si>
+  <si>
+    <t>Username : 9090909090
+Password : 9090909090</t>
+  </si>
+  <si>
+    <t>User should be logged into system successfully and redirect to dashboard</t>
+  </si>
+  <si>
+    <t>TC102</t>
+  </si>
+  <si>
+    <t>To check the Login with invalid credentials</t>
+  </si>
+  <si>
+    <t>Username : 90909090
+Password : 90909090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It display error message in red color "Username name and Password must be valid"
+Username and Password field be blank </t>
+  </si>
+  <si>
+    <t>TC103</t>
+  </si>
+  <si>
+    <t>To check the login with valid username and invalid password</t>
+  </si>
+  <si>
+    <t>Username : 90909090
+Password : 9090</t>
+  </si>
+  <si>
+    <t>TC104</t>
+  </si>
+  <si>
+    <t>Username : 90909090
+Password : test@213123</t>
+  </si>
+  <si>
+    <t>TC105</t>
+  </si>
+  <si>
+    <t>Username : 909
+Password : 9090909090</t>
+  </si>
+  <si>
+    <t>TC109</t>
+  </si>
+  <si>
+    <t>Verify the Forget Password Link</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>The page should be redirect to ForgetPassword Page that shows Email field</t>
+  </si>
+  <si>
+    <t>To check Login Button - Enable/Disable</t>
+  </si>
+  <si>
+    <t>TC110</t>
+  </si>
+  <si>
+    <t>Verify the Login button status when user enters username - password (irrespective of valid/invalid)</t>
+  </si>
+  <si>
+    <t>Login Should be enabled</t>
+  </si>
+  <si>
+    <t>Postive Test case</t>
+  </si>
+  <si>
+    <t>Negative</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,13 +623,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -543,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -562,6 +692,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1012,13 +1149,255 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4E8803-702F-44BC-928D-9C55E60E1BE6}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:O29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="M3" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="150" x14ac:dyDescent="0.25">
+      <c r="D4" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="M4" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="150" x14ac:dyDescent="0.25">
+      <c r="D5" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="150" x14ac:dyDescent="0.25">
+      <c r="F6" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="150" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="D28" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="4:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" t="s">
+        <v>173</v>
+      </c>
+      <c r="F29" t="s">
+        <v>174</v>
+      </c>
+      <c r="G29" t="s">
+        <v>175</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1904,8 +2283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DDC576E-AA6E-4F43-9CDE-87A3912FD3F6}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
